--- a/ALS_data/Log 2016-03-30T04-22-57.038/plots/threadLogger.xlsx
+++ b/ALS_data/Log 2016-03-30T04-22-57.038/plots/threadLogger.xlsx
@@ -22,22 +22,22 @@
     <t>thread name</t>
   </si>
   <si>
-    <t xml:space="preserve"> total move</t>
+    <t>total move</t>
   </si>
   <si>
     <t>alive_time</t>
   </si>
   <si>
-    <t xml:space="preserve">total food count </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> total poison count </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> total children count</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dna</t>
+    <t>total food count</t>
+  </si>
+  <si>
+    <t>total poison count</t>
+  </si>
+  <si>
+    <t>total children count</t>
+  </si>
+  <si>
+    <t>dna</t>
   </si>
   <si>
     <t>gendar</t>
@@ -52,7 +52,7 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>Thread-86</t>
+    <t>86</t>
   </si>
   <si>
     <t xml:space="preserve"> TGGCATGTTT</t>
@@ -61,31 +61,31 @@
     <t>female</t>
   </si>
   <si>
-    <t>Thread-17</t>
+    <t>17</t>
   </si>
   <si>
     <t xml:space="preserve"> CAGACAACCC</t>
   </si>
   <si>
-    <t>Thread-91</t>
+    <t>91</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCCTAATGT</t>
   </si>
   <si>
-    <t>Thread-85</t>
+    <t>85</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCATAATGT</t>
   </si>
   <si>
-    <t>Thread-73</t>
+    <t>73</t>
   </si>
   <si>
     <t xml:space="preserve"> TACGAGACAG</t>
   </si>
   <si>
-    <t>Thread-33</t>
+    <t>33</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCGGCTTTT</t>
@@ -94,3736 +94,3736 @@
     <t>male</t>
   </si>
   <si>
-    <t>Thread-29</t>
+    <t>29</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTACAACCT</t>
   </si>
   <si>
-    <t>Thread-41</t>
+    <t>41</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTGATACCG</t>
   </si>
   <si>
-    <t>Thread-32</t>
+    <t>32</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCCGACATT</t>
   </si>
   <si>
-    <t>Thread-30</t>
+    <t>30</t>
   </si>
   <si>
     <t xml:space="preserve"> ATTTCCTTCC</t>
   </si>
   <si>
-    <t>Thread-43</t>
+    <t>43</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTCCTGTAG</t>
   </si>
   <si>
-    <t>Thread-58</t>
+    <t>58</t>
   </si>
   <si>
     <t xml:space="preserve"> GAATGCCCAT</t>
   </si>
   <si>
-    <t>Thread-25</t>
+    <t>25</t>
   </si>
   <si>
     <t xml:space="preserve"> TGACGCAGGT</t>
   </si>
   <si>
-    <t>Thread-62</t>
+    <t>62</t>
   </si>
   <si>
     <t xml:space="preserve"> TACAGGAAAC</t>
   </si>
   <si>
-    <t>Thread-39</t>
+    <t>39</t>
   </si>
   <si>
     <t xml:space="preserve"> CCTGATAATG</t>
   </si>
   <si>
-    <t>Thread-36</t>
+    <t>36</t>
   </si>
   <si>
     <t xml:space="preserve"> GCACCTGACT</t>
   </si>
   <si>
-    <t>Thread-67</t>
+    <t>67</t>
   </si>
   <si>
     <t xml:space="preserve"> CCACGAGAGA</t>
   </si>
   <si>
-    <t>Thread-75</t>
-  </si>
-  <si>
-    <t>Thread-21</t>
+    <t>75</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTTTGGACA</t>
   </si>
   <si>
-    <t>Thread-28</t>
+    <t>28</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTACATTTC</t>
   </si>
   <si>
-    <t>Thread-78</t>
+    <t>78</t>
   </si>
   <si>
     <t xml:space="preserve"> CAAAAGTGAG</t>
   </si>
   <si>
-    <t>Thread-9</t>
+    <t>9</t>
   </si>
   <si>
     <t xml:space="preserve"> CGAAGAAGGT</t>
   </si>
   <si>
-    <t>Thread-15</t>
+    <t>15</t>
   </si>
   <si>
     <t xml:space="preserve"> ATACAGGGAT</t>
   </si>
   <si>
-    <t>Thread-57</t>
+    <t>57</t>
   </si>
   <si>
     <t xml:space="preserve"> TATCAGATTA</t>
   </si>
   <si>
-    <t>Thread-5</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve"> ACCAAGACAT</t>
   </si>
   <si>
-    <t>Thread-61</t>
+    <t>61</t>
   </si>
   <si>
     <t xml:space="preserve"> CCCTTCAGTA</t>
   </si>
   <si>
-    <t>Thread-14</t>
+    <t>14</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGTTCATCG</t>
   </si>
   <si>
-    <t>Thread-64</t>
+    <t>64</t>
   </si>
   <si>
     <t xml:space="preserve"> GCTAGGAAGC</t>
   </si>
   <si>
-    <t>Thread-59</t>
+    <t>59</t>
   </si>
   <si>
     <t xml:space="preserve"> GCGGAGGAAC</t>
   </si>
   <si>
-    <t>Thread-19</t>
+    <t>19</t>
   </si>
   <si>
     <t xml:space="preserve"> CACTGGCATA</t>
   </si>
   <si>
-    <t>Thread-8</t>
+    <t>8</t>
   </si>
   <si>
     <t xml:space="preserve"> AACTCCGTCG</t>
   </si>
   <si>
-    <t>Thread-94</t>
+    <t>94</t>
   </si>
   <si>
     <t xml:space="preserve"> TGCTATGTGT</t>
   </si>
   <si>
-    <t>Thread-96</t>
+    <t>96</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGTACAGCA</t>
   </si>
   <si>
-    <t>Thread-87</t>
+    <t>87</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCCCATATG</t>
   </si>
   <si>
-    <t>Thread-90</t>
+    <t>90</t>
   </si>
   <si>
     <t xml:space="preserve"> TCGACCTTTC</t>
   </si>
   <si>
-    <t>Thread-97</t>
+    <t>97</t>
   </si>
   <si>
     <t xml:space="preserve"> TTAAAGCTCA</t>
   </si>
   <si>
-    <t>Thread-98</t>
+    <t>98</t>
   </si>
   <si>
     <t xml:space="preserve"> TGCTTAATGT</t>
   </si>
   <si>
-    <t>Thread-93</t>
+    <t>93</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCATCGTTT</t>
   </si>
   <si>
-    <t>Thread-42</t>
+    <t>42</t>
   </si>
   <si>
     <t xml:space="preserve"> TCTTAATGAT</t>
   </si>
   <si>
-    <t>Thread-40</t>
+    <t>40</t>
   </si>
   <si>
     <t xml:space="preserve"> TTGCTCTAAA</t>
   </si>
   <si>
-    <t>Thread-83</t>
+    <t>83</t>
   </si>
   <si>
     <t xml:space="preserve"> ATGCGCCCGG</t>
   </si>
   <si>
-    <t>Thread-48</t>
+    <t>48</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGCAATAAC</t>
   </si>
   <si>
-    <t>Thread-45</t>
+    <t>45</t>
   </si>
   <si>
     <t xml:space="preserve"> GCGCTGGCAC</t>
   </si>
   <si>
-    <t>Thread-79</t>
+    <t>79</t>
   </si>
   <si>
     <t xml:space="preserve"> TTGTATGAAG</t>
   </si>
   <si>
-    <t>Thread-47</t>
+    <t>47</t>
   </si>
   <si>
     <t xml:space="preserve"> TTAGGCAACA</t>
   </si>
   <si>
-    <t>Thread-23</t>
+    <t>23</t>
   </si>
   <si>
     <t xml:space="preserve"> TCGGAGTTTA</t>
   </si>
   <si>
-    <t>Thread-6</t>
+    <t>6</t>
   </si>
   <si>
     <t xml:space="preserve"> TGGCTGGAAA</t>
   </si>
   <si>
-    <t>Thread-69</t>
+    <t>69</t>
   </si>
   <si>
     <t xml:space="preserve"> ACGACAGACA</t>
   </si>
   <si>
-    <t>Thread-11</t>
+    <t>11</t>
   </si>
   <si>
     <t xml:space="preserve"> TCAACGTCTG</t>
   </si>
   <si>
-    <t>Thread-101</t>
+    <t>101</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCCCAGATC</t>
   </si>
   <si>
-    <t>Thread-76</t>
+    <t>76</t>
   </si>
   <si>
     <t xml:space="preserve"> CATATCTTAG</t>
   </si>
   <si>
-    <t>Thread-102</t>
+    <t>102</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTGACAAAC</t>
   </si>
   <si>
-    <t>Thread-20</t>
+    <t>20</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCAGAATTT</t>
   </si>
   <si>
-    <t>Thread-24</t>
+    <t>24</t>
   </si>
   <si>
     <t xml:space="preserve"> TTACCTGATC</t>
   </si>
   <si>
-    <t>Thread-68</t>
+    <t>68</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGTACCCCA</t>
   </si>
   <si>
-    <t>Thread-107</t>
+    <t>107</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCATAATTG</t>
   </si>
   <si>
-    <t>Thread-44</t>
+    <t>44</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCATCCTTG</t>
   </si>
   <si>
-    <t>Thread-109</t>
+    <t>109</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTACAAAC</t>
   </si>
   <si>
-    <t>Thread-108</t>
+    <t>108</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCCCGGAAA</t>
   </si>
   <si>
-    <t>Thread-89</t>
-  </si>
-  <si>
-    <t>Thread-111</t>
-  </si>
-  <si>
-    <t>Thread-100</t>
+    <t>89</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
   <si>
     <t xml:space="preserve"> GACACGCTAA</t>
   </si>
   <si>
-    <t>Thread-114</t>
+    <t>114</t>
   </si>
   <si>
     <t xml:space="preserve"> CCGGGTATTT</t>
   </si>
   <si>
-    <t>Thread-82</t>
+    <t>82</t>
   </si>
   <si>
     <t xml:space="preserve"> CTCGTTCTTG</t>
   </si>
   <si>
-    <t>Thread-60</t>
+    <t>60</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATTTATAT</t>
   </si>
   <si>
-    <t>Thread-16</t>
+    <t>16</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGGGGGTG</t>
   </si>
   <si>
-    <t>Thread-18</t>
+    <t>18</t>
   </si>
   <si>
     <t xml:space="preserve"> TCATCGCGGT</t>
   </si>
   <si>
-    <t>Thread-7</t>
+    <t>7</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTATCTCAG</t>
   </si>
   <si>
-    <t>Thread-55</t>
+    <t>55</t>
   </si>
   <si>
     <t xml:space="preserve"> TCAAGTCTAT</t>
   </si>
   <si>
-    <t>Thread-115</t>
-  </si>
-  <si>
-    <t>Thread-116</t>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGCTGGAAA</t>
   </si>
   <si>
-    <t>Thread-74</t>
+    <t>74</t>
   </si>
   <si>
     <t xml:space="preserve"> TCGTTTGAGT</t>
   </si>
   <si>
-    <t>Thread-46</t>
+    <t>46</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTTAACTCA</t>
   </si>
   <si>
-    <t>Thread-37</t>
+    <t>37</t>
   </si>
   <si>
     <t xml:space="preserve"> TAGGCGGTTA</t>
   </si>
   <si>
-    <t>Thread-12</t>
+    <t>12</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATGGTCCA</t>
   </si>
   <si>
-    <t>Thread-88</t>
+    <t>88</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTGAATAAA</t>
   </si>
   <si>
-    <t>Thread-51</t>
+    <t>51</t>
   </si>
   <si>
     <t xml:space="preserve"> CGAGGTATTT</t>
   </si>
   <si>
-    <t>Thread-106</t>
+    <t>106</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTTCGTAG</t>
   </si>
   <si>
-    <t>Thread-95</t>
+    <t>95</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGCTGGGGT</t>
   </si>
   <si>
-    <t>Thread-127</t>
+    <t>127</t>
   </si>
   <si>
     <t xml:space="preserve"> GACATCGTTT</t>
   </si>
   <si>
-    <t>Thread-71</t>
-  </si>
-  <si>
-    <t>Thread-129</t>
+    <t>71</t>
+  </si>
+  <si>
+    <t>129</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGGGGAAA</t>
   </si>
   <si>
-    <t>Thread-113</t>
-  </si>
-  <si>
-    <t>Thread-65</t>
+    <t>113</t>
+  </si>
+  <si>
+    <t>65</t>
   </si>
   <si>
     <t xml:space="preserve"> ATGCTGACAT</t>
   </si>
   <si>
-    <t>Thread-56</t>
+    <t>56</t>
   </si>
   <si>
     <t xml:space="preserve"> CGAGGAATTG</t>
   </si>
   <si>
-    <t>Thread-77</t>
+    <t>77</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCCGGCTCC</t>
   </si>
   <si>
-    <t>Thread-63</t>
+    <t>63</t>
   </si>
   <si>
     <t xml:space="preserve"> CCCCAACTGG</t>
   </si>
   <si>
-    <t>Thread-66</t>
+    <t>66</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGCGTTGGC</t>
   </si>
   <si>
-    <t>Thread-22</t>
+    <t>22</t>
   </si>
   <si>
     <t xml:space="preserve"> TTGTTGTCGC</t>
   </si>
   <si>
-    <t>Thread-27</t>
+    <t>27</t>
   </si>
   <si>
     <t xml:space="preserve"> TGCGTAGTGC</t>
   </si>
   <si>
-    <t>Thread-53</t>
+    <t>53</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTGATCCTC</t>
   </si>
   <si>
-    <t>Thread-35</t>
+    <t>35</t>
   </si>
   <si>
     <t xml:space="preserve"> GAACTCCTTC</t>
   </si>
   <si>
-    <t>Thread-132</t>
+    <t>132</t>
   </si>
   <si>
     <t xml:space="preserve"> GATGACAAAA</t>
   </si>
   <si>
-    <t>Thread-13</t>
+    <t>13</t>
   </si>
   <si>
     <t xml:space="preserve"> CTATCTCCCT</t>
   </si>
   <si>
-    <t>Thread-135</t>
+    <t>135</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGTGGACCA</t>
   </si>
   <si>
-    <t>Thread-112</t>
+    <t>112</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAAAACAAA</t>
   </si>
   <si>
-    <t>Thread-31</t>
+    <t>31</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTGCCAATT</t>
   </si>
   <si>
-    <t>Thread-52</t>
-  </si>
-  <si>
-    <t>Thread-4</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t xml:space="preserve"> AGCGTCGCAA</t>
   </si>
   <si>
-    <t>Thread-141</t>
+    <t>141</t>
   </si>
   <si>
     <t xml:space="preserve"> GACACGCTAG</t>
   </si>
   <si>
-    <t>Thread-54</t>
+    <t>54</t>
   </si>
   <si>
     <t xml:space="preserve"> GCGTGCCGCG</t>
   </si>
   <si>
-    <t>Thread-70</t>
+    <t>70</t>
   </si>
   <si>
     <t xml:space="preserve"> TCTACATTCG</t>
   </si>
   <si>
-    <t>Thread-147</t>
+    <t>147</t>
   </si>
   <si>
     <t xml:space="preserve"> CGATTTATGT</t>
   </si>
   <si>
-    <t>Thread-148</t>
-  </si>
-  <si>
-    <t>Thread-38</t>
-  </si>
-  <si>
-    <t>Thread-119</t>
+    <t>148</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>119</t>
   </si>
   <si>
     <t xml:space="preserve"> AGCACGCTAG</t>
   </si>
   <si>
-    <t>Thread-10</t>
+    <t>10</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGCTGAGGT</t>
   </si>
   <si>
-    <t>Thread-123</t>
+    <t>123</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAAATCTTG</t>
   </si>
   <si>
-    <t>Thread-149</t>
+    <t>149</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTTCGTTG</t>
   </si>
   <si>
-    <t>Thread-26</t>
+    <t>26</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCGGCTCAG</t>
   </si>
   <si>
-    <t>Thread-150</t>
+    <t>150</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCATCCTGT</t>
   </si>
   <si>
-    <t>Thread-151</t>
+    <t>151</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTGGGGAA</t>
   </si>
   <si>
-    <t>Thread-152</t>
+    <t>152</t>
   </si>
   <si>
     <t xml:space="preserve"> TTGGCCGCTC</t>
   </si>
   <si>
-    <t>Thread-126</t>
+    <t>126</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCGGGTCAG</t>
   </si>
   <si>
-    <t>Thread-80</t>
+    <t>80</t>
   </si>
   <si>
     <t xml:space="preserve"> TGATTAATGT</t>
   </si>
   <si>
-    <t>Thread-157</t>
+    <t>157</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAAAATAAA</t>
   </si>
   <si>
-    <t>Thread-158</t>
+    <t>158</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTAGGGGTA</t>
   </si>
   <si>
-    <t>Thread-128</t>
+    <t>128</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGCAAATTT</t>
   </si>
   <si>
-    <t>Thread-159</t>
+    <t>159</t>
   </si>
   <si>
     <t xml:space="preserve"> GACGTCGCAG</t>
   </si>
   <si>
-    <t>Thread-118</t>
+    <t>118</t>
   </si>
   <si>
     <t xml:space="preserve"> CATATCTTTT</t>
   </si>
   <si>
-    <t>Thread-161</t>
+    <t>161</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCCCATAGC</t>
   </si>
   <si>
-    <t>Thread-49</t>
+    <t>49</t>
   </si>
   <si>
     <t xml:space="preserve"> CAAAAATAAA</t>
   </si>
   <si>
-    <t>Thread-34</t>
+    <t>34</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTTCGTAT</t>
   </si>
   <si>
-    <t>Thread-162</t>
+    <t>162</t>
   </si>
   <si>
     <t xml:space="preserve"> TCTTAACTCG</t>
   </si>
   <si>
-    <t>Thread-105</t>
+    <t>105</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGGGTATTT</t>
   </si>
   <si>
-    <t>Thread-117</t>
+    <t>117</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGACATCAA</t>
   </si>
   <si>
-    <t>Thread-140</t>
+    <t>140</t>
   </si>
   <si>
     <t xml:space="preserve"> TCGTTTATTT</t>
   </si>
   <si>
-    <t>Thread-138</t>
+    <t>138</t>
   </si>
   <si>
     <t xml:space="preserve"> CAAAAATTAG</t>
   </si>
   <si>
-    <t>Thread-167</t>
+    <t>167</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTAGGATAA</t>
   </si>
   <si>
-    <t>Thread-168</t>
-  </si>
-  <si>
-    <t>Thread-130</t>
+    <t>168</t>
+  </si>
+  <si>
+    <t>130</t>
   </si>
   <si>
     <t xml:space="preserve"> CATGCGGTTA</t>
   </si>
   <si>
-    <t>Thread-122</t>
+    <t>122</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGGCCACCA</t>
   </si>
   <si>
-    <t>Thread-170</t>
+    <t>170</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCCTGAACC</t>
   </si>
   <si>
-    <t>Thread-169</t>
+    <t>169</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTACATACA</t>
   </si>
   <si>
-    <t>Thread-134</t>
+    <t>134</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTACATCCA</t>
   </si>
   <si>
-    <t>Thread-174</t>
+    <t>174</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATGGTCAA</t>
   </si>
   <si>
-    <t>Thread-172</t>
+    <t>172</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTACATAAA</t>
   </si>
   <si>
-    <t>Thread-176</t>
+    <t>176</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTGAATCAA</t>
   </si>
   <si>
-    <t>Thread-137</t>
-  </si>
-  <si>
-    <t>Thread-81</t>
+    <t>137</t>
+  </si>
+  <si>
+    <t>81</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTCAATAA</t>
   </si>
   <si>
-    <t>Thread-72</t>
+    <t>72</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCCCATATC</t>
   </si>
   <si>
-    <t>Thread-50</t>
+    <t>50</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTTGAACC</t>
   </si>
   <si>
-    <t>Thread-179</t>
+    <t>179</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTCAAGTA</t>
   </si>
   <si>
-    <t>Thread-180</t>
-  </si>
-  <si>
-    <t>Thread-110</t>
-  </si>
-  <si>
-    <t>Thread-121</t>
-  </si>
-  <si>
-    <t>Thread-184</t>
+    <t>180</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>184</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGACATCCA</t>
   </si>
   <si>
-    <t>Thread-186</t>
+    <t>186</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTGGACAA</t>
   </si>
   <si>
-    <t>Thread-185</t>
+    <t>185</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGAAACTTA</t>
   </si>
   <si>
-    <t>Thread-145</t>
+    <t>145</t>
   </si>
   <si>
     <t xml:space="preserve"> TCTACACTCG</t>
   </si>
   <si>
-    <t>Thread-189</t>
+    <t>189</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAAATCGCG</t>
   </si>
   <si>
-    <t>Thread-190</t>
+    <t>190</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTTGGTAAA</t>
   </si>
   <si>
-    <t>Thread-192</t>
+    <t>192</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTCAAATT</t>
   </si>
   <si>
-    <t>Thread-193</t>
+    <t>193</t>
   </si>
   <si>
     <t xml:space="preserve"> GACACATCAA</t>
   </si>
   <si>
-    <t>Thread-142</t>
-  </si>
-  <si>
-    <t>Thread-120</t>
-  </si>
-  <si>
-    <t>Thread-194</t>
+    <t>142</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>194</t>
   </si>
   <si>
     <t xml:space="preserve"> GATGAAATTA</t>
   </si>
   <si>
-    <t>Thread-195</t>
+    <t>195</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGGGCTTTC</t>
   </si>
   <si>
-    <t>Thread-197</t>
-  </si>
-  <si>
-    <t>Thread-136</t>
+    <t>197</t>
+  </si>
+  <si>
+    <t>136</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAAAACTTA</t>
   </si>
   <si>
-    <t>Thread-155</t>
+    <t>155</t>
   </si>
   <si>
     <t xml:space="preserve"> CAAAAATCTA</t>
   </si>
   <si>
-    <t>Thread-198</t>
+    <t>198</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAAAATCAG</t>
   </si>
   <si>
-    <t>Thread-201</t>
+    <t>201</t>
   </si>
   <si>
     <t xml:space="preserve"> CATAAATTTT</t>
   </si>
   <si>
-    <t>Thread-200</t>
-  </si>
-  <si>
-    <t>Thread-103</t>
+    <t>200</t>
+  </si>
+  <si>
+    <t>103</t>
   </si>
   <si>
     <t xml:space="preserve"> CAAAAATCGA</t>
   </si>
   <si>
-    <t>Thread-124</t>
-  </si>
-  <si>
-    <t>Thread-203</t>
+    <t>124</t>
+  </si>
+  <si>
+    <t>203</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTACAGTA</t>
   </si>
   <si>
-    <t>Thread-207</t>
+    <t>207</t>
   </si>
   <si>
     <t xml:space="preserve"> CTCGTTTCGA</t>
   </si>
   <si>
-    <t>Thread-206</t>
+    <t>206</t>
   </si>
   <si>
     <t xml:space="preserve"> CCGTGCCTTT</t>
   </si>
   <si>
-    <t>Thread-208</t>
+    <t>208</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTTGAGGC</t>
   </si>
   <si>
-    <t>Thread-163</t>
+    <t>163</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGTGGTCCA</t>
   </si>
   <si>
-    <t>Thread-171</t>
-  </si>
-  <si>
-    <t>Thread-210</t>
+    <t>171</t>
+  </si>
+  <si>
+    <t>210</t>
   </si>
   <si>
     <t xml:space="preserve"> CCAAATCTTT</t>
   </si>
   <si>
-    <t>Thread-209</t>
+    <t>209</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTCTGAGAA</t>
   </si>
   <si>
-    <t>Thread-211</t>
+    <t>211</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTGACAAAC</t>
   </si>
   <si>
-    <t>Thread-164</t>
+    <t>164</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAAAATCAA</t>
   </si>
   <si>
-    <t>Thread-212</t>
+    <t>212</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTTGAGGT</t>
   </si>
   <si>
-    <t>Thread-154</t>
-  </si>
-  <si>
-    <t>Thread-175</t>
+    <t>154</t>
+  </si>
+  <si>
+    <t>175</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTTAATGT</t>
   </si>
   <si>
-    <t>Thread-156</t>
-  </si>
-  <si>
-    <t>Thread-213</t>
+    <t>156</t>
+  </si>
+  <si>
+    <t>213</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAAAATCTA</t>
   </si>
   <si>
-    <t>Thread-139</t>
+    <t>139</t>
   </si>
   <si>
     <t xml:space="preserve"> TGCATCCTTG</t>
   </si>
   <si>
-    <t>Thread-217</t>
+    <t>217</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGACATCCA</t>
   </si>
   <si>
-    <t>Thread-133</t>
+    <t>133</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTGACAATT</t>
   </si>
   <si>
-    <t>Thread-218</t>
+    <t>218</t>
   </si>
   <si>
     <t xml:space="preserve"> GACGAAGGTA</t>
   </si>
   <si>
-    <t>Thread-220</t>
+    <t>220</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTTGATCC</t>
   </si>
   <si>
-    <t>Thread-219</t>
+    <t>219</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCTTAATGT</t>
   </si>
   <si>
-    <t>Thread-221</t>
+    <t>221</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGACAGTGC</t>
   </si>
   <si>
-    <t>Thread-177</t>
-  </si>
-  <si>
-    <t>Thread-178</t>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
   </si>
   <si>
     <t xml:space="preserve"> CAAAAATTTA</t>
   </si>
   <si>
-    <t>Thread-222</t>
-  </si>
-  <si>
-    <t>Thread-223</t>
-  </si>
-  <si>
-    <t>Thread-181</t>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>181</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGGGGTGC</t>
   </si>
   <si>
-    <t>Thread-226</t>
+    <t>226</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGGGGATAA</t>
   </si>
   <si>
-    <t>Thread-183</t>
+    <t>183</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGCAAAGGT</t>
   </si>
   <si>
-    <t>Thread-227</t>
+    <t>227</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGCAGGTA</t>
   </si>
   <si>
-    <t>Thread-229</t>
-  </si>
-  <si>
-    <t>Thread-125</t>
+    <t>229</t>
+  </si>
+  <si>
+    <t>125</t>
   </si>
   <si>
     <t xml:space="preserve"> TTGGCTGATC</t>
   </si>
   <si>
-    <t>Thread-173</t>
-  </si>
-  <si>
-    <t>Thread-196</t>
-  </si>
-  <si>
-    <t>Thread-166</t>
-  </si>
-  <si>
-    <t>Thread-187</t>
+    <t>173</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>187</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCGTAGTGC</t>
   </si>
   <si>
-    <t>Thread-230</t>
+    <t>230</t>
   </si>
   <si>
     <t xml:space="preserve"> GATACATCCA</t>
   </si>
   <si>
-    <t>Thread-231</t>
+    <t>231</t>
   </si>
   <si>
     <t xml:space="preserve"> CCCTTTAGTA</t>
   </si>
   <si>
-    <t>Thread-146</t>
+    <t>146</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGGACTCAA</t>
   </si>
   <si>
-    <t>Thread-104</t>
-  </si>
-  <si>
-    <t>Thread-233</t>
+    <t>104</t>
+  </si>
+  <si>
+    <t>233</t>
   </si>
   <si>
     <t xml:space="preserve"> CAAAATCTTA</t>
   </si>
   <si>
-    <t>Thread-204</t>
+    <t>204</t>
   </si>
   <si>
     <t xml:space="preserve"> TTCGTTGATC</t>
   </si>
   <si>
-    <t>Thread-234</t>
+    <t>234</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTCAGGTA</t>
   </si>
   <si>
-    <t>Thread-143</t>
+    <t>143</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGGGGGTA</t>
   </si>
   <si>
-    <t>Thread-153</t>
+    <t>153</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCGTTCTTG</t>
   </si>
   <si>
-    <t>Thread-235</t>
+    <t>235</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTGACATAA</t>
   </si>
   <si>
-    <t>Thread-237</t>
-  </si>
-  <si>
-    <t>Thread-236</t>
+    <t>237</t>
+  </si>
+  <si>
+    <t>236</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGTTGGGCA</t>
   </si>
   <si>
-    <t>Thread-238</t>
+    <t>238</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTTCAATT</t>
   </si>
   <si>
-    <t>Thread-131</t>
+    <t>131</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTGGATAA</t>
   </si>
   <si>
-    <t>Thread-199</t>
+    <t>199</t>
   </si>
   <si>
     <t xml:space="preserve"> GCGTGCTCTG</t>
   </si>
   <si>
-    <t>Thread-239</t>
+    <t>239</t>
   </si>
   <si>
     <t xml:space="preserve"> GACACATCCA</t>
   </si>
   <si>
-    <t>Thread-160</t>
+    <t>160</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTCAATTA</t>
   </si>
   <si>
-    <t>Thread-216</t>
-  </si>
-  <si>
-    <t>Thread-205</t>
+    <t>216</t>
+  </si>
+  <si>
+    <t>205</t>
   </si>
   <si>
     <t xml:space="preserve"> TCGTTTATTG</t>
   </si>
   <si>
-    <t>Thread-240</t>
+    <t>240</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCGTTCTTT</t>
   </si>
   <si>
-    <t>Thread-241</t>
-  </si>
-  <si>
-    <t>Thread-242</t>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAAAACCGA</t>
   </si>
   <si>
-    <t>Thread-202</t>
+    <t>202</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGCGGTTA</t>
   </si>
   <si>
-    <t>Thread-245</t>
+    <t>245</t>
   </si>
   <si>
     <t xml:space="preserve"> GACGCCAAAA</t>
   </si>
   <si>
-    <t>Thread-246</t>
+    <t>246</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTCCGGTA</t>
   </si>
   <si>
-    <t>Thread-248</t>
+    <t>248</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTACAATTT</t>
   </si>
   <si>
-    <t>Thread-249</t>
+    <t>249</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTACATAGT</t>
   </si>
   <si>
-    <t>Thread-99</t>
-  </si>
-  <si>
-    <t>Thread-251</t>
+    <t>99</t>
+  </si>
+  <si>
+    <t>251</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGAATTTA</t>
   </si>
   <si>
-    <t>Thread-254</t>
-  </si>
-  <si>
-    <t>Thread-215</t>
+    <t>254</t>
+  </si>
+  <si>
+    <t>215</t>
   </si>
   <si>
     <t xml:space="preserve"> CTCAAACCGA</t>
   </si>
   <si>
-    <t>Thread-224</t>
+    <t>224</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTGAAATTT</t>
   </si>
   <si>
-    <t>Thread-258</t>
+    <t>258</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGGGGGTGC</t>
   </si>
   <si>
-    <t>Thread-259</t>
+    <t>259</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGCACAATT</t>
   </si>
   <si>
-    <t>Thread-260</t>
+    <t>260</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTGAGGTA</t>
   </si>
   <si>
-    <t>Thread-92</t>
+    <t>92</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCGAATGT</t>
   </si>
   <si>
-    <t>Thread-214</t>
-  </si>
-  <si>
-    <t>Thread-262</t>
+    <t>214</t>
+  </si>
+  <si>
+    <t>262</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCTGGATAC</t>
   </si>
   <si>
-    <t>Thread-191</t>
-  </si>
-  <si>
-    <t>Thread-232</t>
+    <t>191</t>
+  </si>
+  <si>
+    <t>232</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAAAATGCG</t>
   </si>
   <si>
-    <t>Thread-182</t>
+    <t>182</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAAAACGCG</t>
   </si>
   <si>
-    <t>Thread-266</t>
+    <t>266</t>
   </si>
   <si>
     <t xml:space="preserve"> CACGTTTCGA</t>
   </si>
   <si>
-    <t>Thread-267</t>
-  </si>
-  <si>
-    <t>Thread-268</t>
+    <t>267</t>
+  </si>
+  <si>
+    <t>268</t>
   </si>
   <si>
     <t xml:space="preserve"> TGATTAATTG</t>
   </si>
   <si>
-    <t>Thread-144</t>
-  </si>
-  <si>
-    <t>Thread-270</t>
+    <t>144</t>
+  </si>
+  <si>
+    <t>270</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGAAATTTA</t>
   </si>
   <si>
-    <t>Thread-271</t>
+    <t>271</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTGCCAAAC</t>
   </si>
   <si>
-    <t>Thread-272</t>
+    <t>272</t>
   </si>
   <si>
     <t xml:space="preserve"> CAAAAATTTG</t>
   </si>
   <si>
-    <t>Thread-273</t>
+    <t>273</t>
   </si>
   <si>
     <t xml:space="preserve"> GCCTCAGTGC</t>
   </si>
   <si>
-    <t>Thread-274</t>
+    <t>274</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAAACAACG</t>
   </si>
   <si>
-    <t>Thread-165</t>
-  </si>
-  <si>
-    <t>Thread-243</t>
-  </si>
-  <si>
-    <t>Thread-275</t>
+    <t>165</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>275</t>
   </si>
   <si>
     <t xml:space="preserve"> CAAACATCGA</t>
   </si>
   <si>
-    <t>Thread-253</t>
-  </si>
-  <si>
-    <t>Thread-276</t>
-  </si>
-  <si>
-    <t>Thread-225</t>
-  </si>
-  <si>
-    <t>Thread-228</t>
+    <t>253</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>228</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAAAATTTA</t>
   </si>
   <si>
-    <t>Thread-279</t>
+    <t>279</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAAAGTAAA</t>
   </si>
   <si>
-    <t>Thread-250</t>
+    <t>250</t>
   </si>
   <si>
     <t xml:space="preserve"> CATGACACGA</t>
   </si>
   <si>
-    <t>Thread-281</t>
-  </si>
-  <si>
-    <t>Thread-244</t>
+    <t>281</t>
+  </si>
+  <si>
+    <t>244</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAAAATAAG</t>
   </si>
   <si>
-    <t>Thread-282</t>
+    <t>282</t>
   </si>
   <si>
     <t xml:space="preserve"> GACGCCAAAC</t>
   </si>
   <si>
-    <t>Thread-283</t>
+    <t>283</t>
   </si>
   <si>
     <t xml:space="preserve"> CATGATTCGA</t>
   </si>
   <si>
-    <t>Thread-284</t>
+    <t>284</t>
   </si>
   <si>
     <t xml:space="preserve"> CTCAAAGTGA</t>
   </si>
   <si>
-    <t>Thread-263</t>
+    <t>263</t>
   </si>
   <si>
     <t xml:space="preserve"> TCCGGGTCTC</t>
   </si>
   <si>
-    <t>Thread-287</t>
+    <t>287</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAAAATCGG</t>
   </si>
   <si>
-    <t>Thread-288</t>
+    <t>288</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTGGGCTA</t>
   </si>
   <si>
-    <t>Thread-291</t>
+    <t>291</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGTGTCTA</t>
   </si>
   <si>
-    <t>Thread-292</t>
-  </si>
-  <si>
-    <t>Thread-264</t>
-  </si>
-  <si>
-    <t>Thread-293</t>
+    <t>292</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>293</t>
   </si>
   <si>
     <t xml:space="preserve"> GCAAAATAAA</t>
   </si>
   <si>
-    <t>Thread-256</t>
+    <t>256</t>
   </si>
   <si>
     <t xml:space="preserve"> GCGTGACGCG</t>
   </si>
   <si>
-    <t>Thread-257</t>
+    <t>257</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGACTCTA</t>
   </si>
   <si>
-    <t>Thread-296</t>
+    <t>296</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTTTGAGGT</t>
   </si>
   <si>
-    <t>Thread-295</t>
+    <t>295</t>
   </si>
   <si>
     <t xml:space="preserve"> CATGAATCGA</t>
   </si>
   <si>
-    <t>Thread-294</t>
+    <t>294</t>
   </si>
   <si>
     <t xml:space="preserve"> CGTGAACCGA</t>
   </si>
   <si>
-    <t>Thread-188</t>
-  </si>
-  <si>
-    <t>Thread-298</t>
+    <t>188</t>
+  </si>
+  <si>
+    <t>298</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTGAACCGA</t>
   </si>
   <si>
-    <t>Thread-252</t>
-  </si>
-  <si>
-    <t>Thread-300</t>
-  </si>
-  <si>
-    <t>Thread-299</t>
-  </si>
-  <si>
-    <t>Thread-301</t>
+    <t>252</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>301</t>
   </si>
   <si>
     <t xml:space="preserve"> CTCAAATCGA</t>
   </si>
   <si>
-    <t>Thread-303</t>
-  </si>
-  <si>
-    <t>Thread-304</t>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAAACTCTA</t>
   </si>
   <si>
-    <t>Thread-305</t>
+    <t>305</t>
   </si>
   <si>
     <t xml:space="preserve"> AATGAATGCG</t>
   </si>
   <si>
-    <t>Thread-307</t>
+    <t>307</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTGAGAAA</t>
   </si>
   <si>
-    <t>Thread-285</t>
+    <t>285</t>
   </si>
   <si>
     <t xml:space="preserve"> CGTGAAATTA</t>
   </si>
   <si>
-    <t>Thread-309</t>
-  </si>
-  <si>
-    <t>Thread-310</t>
+    <t>309</t>
+  </si>
+  <si>
+    <t>310</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTGGAAAC</t>
   </si>
   <si>
-    <t>Thread-286</t>
+    <t>286</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGACACGA</t>
   </si>
   <si>
-    <t>Thread-247</t>
+    <t>247</t>
   </si>
   <si>
     <t xml:space="preserve"> ATAATTCTTG</t>
   </si>
   <si>
-    <t>Thread-269</t>
+    <t>269</t>
   </si>
   <si>
     <t xml:space="preserve"> CAAAAATAGA</t>
   </si>
   <si>
-    <t>Thread-315</t>
+    <t>315</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAAAATGTG</t>
   </si>
   <si>
-    <t>Thread-280</t>
+    <t>280</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGAGGTTA</t>
   </si>
   <si>
-    <t>Thread-317</t>
-  </si>
-  <si>
-    <t>Thread-318</t>
+    <t>317</t>
+  </si>
+  <si>
+    <t>318</t>
   </si>
   <si>
     <t xml:space="preserve"> CAACAATAGA</t>
   </si>
   <si>
-    <t>Thread-321</t>
+    <t>321</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGAGGCTA</t>
   </si>
   <si>
-    <t>Thread-322</t>
+    <t>322</t>
   </si>
   <si>
     <t xml:space="preserve"> GCTGCCAGCG</t>
   </si>
   <si>
-    <t>Thread-323</t>
+    <t>323</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCTTGAGGT</t>
   </si>
   <si>
-    <t>Thread-297</t>
+    <t>297</t>
   </si>
   <si>
     <t xml:space="preserve"> CCCTTGAGGT</t>
   </si>
   <si>
-    <t>Thread-261</t>
-  </si>
-  <si>
-    <t>Thread-306</t>
-  </si>
-  <si>
-    <t>Thread-308</t>
+    <t>261</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>308</t>
   </si>
   <si>
     <t xml:space="preserve"> ATAGAATTTG</t>
   </si>
   <si>
-    <t>Thread-326</t>
+    <t>326</t>
   </si>
   <si>
     <t xml:space="preserve"> ATTGACACGA</t>
   </si>
   <si>
-    <t>Thread-329</t>
-  </si>
-  <si>
-    <t>Thread-302</t>
+    <t>329</t>
+  </si>
+  <si>
+    <t>302</t>
   </si>
   <si>
     <t xml:space="preserve"> CACTGGGCTA</t>
   </si>
   <si>
-    <t>Thread-277</t>
+    <t>277</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCGAATTTA</t>
   </si>
   <si>
-    <t>Thread-255</t>
+    <t>255</t>
   </si>
   <si>
     <t xml:space="preserve"> ATTGAATAAA</t>
   </si>
   <si>
-    <t>Thread-289</t>
-  </si>
-  <si>
-    <t>Thread-331</t>
+    <t>289</t>
+  </si>
+  <si>
+    <t>331</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGAATGCG</t>
   </si>
   <si>
-    <t>Thread-312</t>
+    <t>312</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGCCAAAA</t>
   </si>
   <si>
-    <t>Thread-335</t>
+    <t>335</t>
   </si>
   <si>
     <t xml:space="preserve"> CACGCCAAAA</t>
   </si>
   <si>
-    <t>Thread-333</t>
+    <t>333</t>
   </si>
   <si>
     <t xml:space="preserve"> AACGTTTCGA</t>
   </si>
   <si>
-    <t>Thread-334</t>
+    <t>334</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCGACTGT</t>
   </si>
   <si>
-    <t>Thread-313</t>
+    <t>313</t>
   </si>
   <si>
     <t xml:space="preserve"> AATGAATTTG</t>
   </si>
   <si>
-    <t>Thread-265</t>
+    <t>265</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTGGATGA</t>
   </si>
   <si>
-    <t>Thread-314</t>
+    <t>314</t>
   </si>
   <si>
     <t xml:space="preserve"> CAAAAAGCTA</t>
   </si>
   <si>
-    <t>Thread-337</t>
+    <t>337</t>
   </si>
   <si>
     <t xml:space="preserve"> CAAAAAGCGA</t>
   </si>
   <si>
-    <t>Thread-311</t>
+    <t>311</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAAGACGCG</t>
   </si>
   <si>
-    <t>Thread-325</t>
+    <t>325</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGCCAAAA</t>
   </si>
   <si>
-    <t>Thread-316</t>
+    <t>316</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTACTCTA</t>
   </si>
   <si>
-    <t>Thread-340</t>
-  </si>
-  <si>
-    <t>Thread-341</t>
+    <t>340</t>
+  </si>
+  <si>
+    <t>341</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCGGGATGA</t>
   </si>
   <si>
-    <t>Thread-342</t>
-  </si>
-  <si>
-    <t>Thread-330</t>
+    <t>342</t>
+  </si>
+  <si>
+    <t>330</t>
   </si>
   <si>
     <t xml:space="preserve"> ATAATATTTG</t>
   </si>
   <si>
-    <t>Thread-343</t>
+    <t>343</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGGGGGGA</t>
   </si>
   <si>
-    <t>Thread-345</t>
+    <t>345</t>
   </si>
   <si>
     <t xml:space="preserve"> ATTGAGTAAA</t>
   </si>
   <si>
-    <t>Thread-328</t>
-  </si>
-  <si>
-    <t>Thread-347</t>
+    <t>328</t>
+  </si>
+  <si>
+    <t>347</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGAGTTTA</t>
   </si>
   <si>
-    <t>Thread-348</t>
+    <t>348</t>
   </si>
   <si>
     <t xml:space="preserve"> CACTGGAGTA</t>
   </si>
   <si>
-    <t>Thread-332</t>
+    <t>332</t>
   </si>
   <si>
     <t xml:space="preserve"> ACGTGACGTA</t>
   </si>
   <si>
-    <t>Thread-352</t>
+    <t>352</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTGGGCGA</t>
   </si>
   <si>
-    <t>Thread-353</t>
+    <t>353</t>
   </si>
   <si>
     <t xml:space="preserve"> CACTGGTCGA</t>
   </si>
   <si>
-    <t>Thread-354</t>
+    <t>354</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGAATATA</t>
   </si>
   <si>
-    <t>Thread-355</t>
+    <t>355</t>
   </si>
   <si>
     <t xml:space="preserve"> AATATATTTG</t>
   </si>
   <si>
-    <t>Thread-357</t>
-  </si>
-  <si>
-    <t>Thread-338</t>
+    <t>357</t>
+  </si>
+  <si>
+    <t>338</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAAAATAGA</t>
   </si>
   <si>
-    <t>Thread-336</t>
+    <t>336</t>
   </si>
   <si>
     <t xml:space="preserve"> GACAAATATA</t>
   </si>
   <si>
-    <t>Thread-324</t>
+    <t>324</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGACTGGT</t>
   </si>
   <si>
-    <t>Thread-319</t>
+    <t>319</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCGTTTCGA</t>
   </si>
   <si>
-    <t>Thread-359</t>
+    <t>359</t>
   </si>
   <si>
     <t xml:space="preserve"> CTCTGGGCTA</t>
   </si>
   <si>
-    <t>Thread-327</t>
+    <t>327</t>
   </si>
   <si>
     <t xml:space="preserve"> CACTGGGGTA</t>
   </si>
   <si>
-    <t>Thread-361</t>
+    <t>361</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGCCCGCG</t>
   </si>
   <si>
-    <t>Thread-364</t>
+    <t>364</t>
   </si>
   <si>
     <t xml:space="preserve"> ATAATATTCG</t>
   </si>
   <si>
-    <t>Thread-339</t>
+    <t>339</t>
   </si>
   <si>
     <t xml:space="preserve"> GAAAGAGGTA</t>
   </si>
   <si>
-    <t>Thread-365</t>
+    <t>365</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGAATGGT</t>
   </si>
   <si>
-    <t>Thread-351</t>
+    <t>351</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGAGGGCG</t>
   </si>
   <si>
-    <t>Thread-367</t>
-  </si>
-  <si>
-    <t>Thread-368</t>
+    <t>367</t>
+  </si>
+  <si>
+    <t>368</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAATATATG</t>
   </si>
   <si>
-    <t>Thread-320</t>
-  </si>
-  <si>
-    <t>Thread-369</t>
+    <t>320</t>
+  </si>
+  <si>
+    <t>369</t>
   </si>
   <si>
     <t xml:space="preserve"> ACAGACTCGA</t>
   </si>
   <si>
-    <t>Thread-371</t>
-  </si>
-  <si>
-    <t>Thread-372</t>
+    <t>371</t>
+  </si>
+  <si>
+    <t>372</t>
   </si>
   <si>
     <t xml:space="preserve"> ACAGGGGCTA</t>
   </si>
   <si>
-    <t>Thread-374</t>
+    <t>374</t>
   </si>
   <si>
     <t xml:space="preserve"> GACAACTGTA</t>
   </si>
   <si>
-    <t>Thread-377</t>
+    <t>377</t>
   </si>
   <si>
     <t xml:space="preserve"> CTATGGGGGT</t>
   </si>
   <si>
-    <t>Thread-378</t>
+    <t>378</t>
   </si>
   <si>
     <t xml:space="preserve"> CCAGTTTGGT</t>
   </si>
   <si>
-    <t>Thread-360</t>
-  </si>
-  <si>
-    <t>Thread-379</t>
+    <t>360</t>
+  </si>
+  <si>
+    <t>379</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGTTTCGA</t>
   </si>
   <si>
-    <t>Thread-380</t>
+    <t>380</t>
   </si>
   <si>
     <t xml:space="preserve"> ATAATATGCG</t>
   </si>
   <si>
-    <t>Thread-362</t>
-  </si>
-  <si>
-    <t>Thread-290</t>
-  </si>
-  <si>
-    <t>Thread-350</t>
-  </si>
-  <si>
-    <t>Thread-346</t>
-  </si>
-  <si>
-    <t>Thread-381</t>
+    <t>362</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>381</t>
   </si>
   <si>
     <t xml:space="preserve"> CTCGACTGGT</t>
   </si>
   <si>
-    <t>Thread-382</t>
+    <t>382</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCGTTTCGA</t>
   </si>
   <si>
-    <t>Thread-384</t>
+    <t>384</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCGTCTGGT</t>
   </si>
   <si>
-    <t>Thread-383</t>
+    <t>383</t>
   </si>
   <si>
     <t xml:space="preserve"> GAAAACTCTA</t>
   </si>
   <si>
-    <t>Thread-358</t>
+    <t>358</t>
   </si>
   <si>
     <t xml:space="preserve"> CCAGACTGGT</t>
   </si>
   <si>
-    <t>Thread-366</t>
+    <t>366</t>
   </si>
   <si>
     <t xml:space="preserve"> GACTACGCTA</t>
   </si>
   <si>
-    <t>Thread-385</t>
-  </si>
-  <si>
-    <t>Thread-373</t>
+    <t>385</t>
+  </si>
+  <si>
+    <t>373</t>
   </si>
   <si>
     <t xml:space="preserve"> AATGTATTTG</t>
   </si>
   <si>
-    <t>Thread-278</t>
+    <t>278</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGGGGCTA</t>
   </si>
   <si>
-    <t>Thread-388</t>
-  </si>
-  <si>
-    <t>Thread-389</t>
+    <t>388</t>
+  </si>
+  <si>
+    <t>389</t>
   </si>
   <si>
     <t xml:space="preserve"> GACGTTTCTA</t>
   </si>
   <si>
-    <t>Thread-356</t>
+    <t>356</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGCCAATG</t>
   </si>
   <si>
-    <t>Thread-349</t>
-  </si>
-  <si>
-    <t>Thread-390</t>
+    <t>349</t>
+  </si>
+  <si>
+    <t>390</t>
   </si>
   <si>
     <t xml:space="preserve"> GTAGGGGCTA</t>
   </si>
   <si>
-    <t>Thread-344</t>
+    <t>344</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCGAATGA</t>
   </si>
   <si>
-    <t>Thread-392</t>
+    <t>392</t>
   </si>
   <si>
     <t xml:space="preserve"> AACCGAATGA</t>
   </si>
   <si>
-    <t>Thread-393</t>
+    <t>393</t>
   </si>
   <si>
     <t xml:space="preserve"> AACTTTTCGA</t>
   </si>
   <si>
-    <t>Thread-363</t>
-  </si>
-  <si>
-    <t>Thread-394</t>
-  </si>
-  <si>
-    <t>Thread-375</t>
+    <t>363</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>375</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGTATTTG</t>
   </si>
   <si>
-    <t>Thread-399</t>
+    <t>399</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGGAATGA</t>
   </si>
   <si>
-    <t>Thread-400</t>
+    <t>400</t>
   </si>
   <si>
     <t xml:space="preserve"> CACTACGCTA</t>
   </si>
   <si>
-    <t>Thread-402</t>
-  </si>
-  <si>
-    <t>Thread-370</t>
-  </si>
-  <si>
-    <t>Thread-376</t>
-  </si>
-  <si>
-    <t>Thread-386</t>
+    <t>402</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>386</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGCCAACG</t>
   </si>
   <si>
-    <t>Thread-408</t>
+    <t>408</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGACTGTA</t>
   </si>
   <si>
-    <t>Thread-407</t>
+    <t>407</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGTATATG</t>
   </si>
   <si>
-    <t>Thread-409</t>
-  </si>
-  <si>
-    <t>Thread-411</t>
+    <t>409</t>
+  </si>
+  <si>
+    <t>411</t>
   </si>
   <si>
     <t xml:space="preserve"> CACTACTCTA</t>
   </si>
   <si>
-    <t>Thread-391</t>
+    <t>391</t>
   </si>
   <si>
     <t xml:space="preserve"> CACGACTGGT</t>
   </si>
   <si>
-    <t>Thread-412</t>
+    <t>412</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCGAACTA</t>
   </si>
   <si>
-    <t>Thread-396</t>
-  </si>
-  <si>
-    <t>Thread-387</t>
-  </si>
-  <si>
-    <t>Thread-413</t>
+    <t>396</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>413</t>
   </si>
   <si>
     <t xml:space="preserve"> CACGTTTCGT</t>
   </si>
   <si>
-    <t>Thread-414</t>
+    <t>414</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGTAACTA</t>
   </si>
   <si>
-    <t>Thread-418</t>
+    <t>418</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGCCATTG</t>
   </si>
   <si>
-    <t>Thread-419</t>
+    <t>419</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGCCAACA</t>
   </si>
   <si>
-    <t>Thread-401</t>
-  </si>
-  <si>
-    <t>Thread-406</t>
+    <t>401</t>
+  </si>
+  <si>
+    <t>406</t>
   </si>
   <si>
     <t xml:space="preserve"> CACGGGGCTA</t>
   </si>
   <si>
-    <t>Thread-421</t>
+    <t>421</t>
   </si>
   <si>
     <t xml:space="preserve"> AACCTTTGGA</t>
   </si>
   <si>
-    <t>Thread-403</t>
+    <t>403</t>
   </si>
   <si>
     <t xml:space="preserve"> CCAGACTCTA</t>
   </si>
   <si>
-    <t>Thread-397</t>
+    <t>397</t>
   </si>
   <si>
     <t xml:space="preserve"> AACGTTTGGA</t>
   </si>
   <si>
-    <t>Thread-398</t>
+    <t>398</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGTAAATG</t>
   </si>
   <si>
-    <t>Thread-405</t>
-  </si>
-  <si>
-    <t>Thread-422</t>
+    <t>405</t>
+  </si>
+  <si>
+    <t>422</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCGATCGA</t>
   </si>
   <si>
-    <t>Thread-395</t>
+    <t>395</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGGAGCTA</t>
   </si>
   <si>
-    <t>Thread-423</t>
-  </si>
-  <si>
-    <t>Thread-424</t>
-  </si>
-  <si>
-    <t>Thread-404</t>
+    <t>423</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>404</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCGAAGGA</t>
   </si>
   <si>
-    <t>Thread-410</t>
+    <t>410</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGAATGTG</t>
   </si>
   <si>
-    <t>Thread-429</t>
+    <t>429</t>
   </si>
   <si>
     <t xml:space="preserve"> CACGACTGGA</t>
   </si>
   <si>
-    <t>Thread-430</t>
+    <t>430</t>
   </si>
   <si>
     <t xml:space="preserve"> CAAGACTGGT</t>
   </si>
   <si>
-    <t>Thread-431</t>
-  </si>
-  <si>
-    <t>Thread-432</t>
+    <t>431</t>
+  </si>
+  <si>
+    <t>432</t>
   </si>
   <si>
     <t xml:space="preserve"> AATGAATGTG</t>
   </si>
   <si>
-    <t>Thread-415</t>
-  </si>
-  <si>
-    <t>Thread-417</t>
-  </si>
-  <si>
-    <t>Thread-425</t>
+    <t>415</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>425</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGTATGCG</t>
   </si>
   <si>
-    <t>Thread-433</t>
+    <t>433</t>
   </si>
   <si>
     <t xml:space="preserve"> AACCGTTGGA</t>
   </si>
   <si>
-    <t>Thread-434</t>
-  </si>
-  <si>
-    <t>Thread-435</t>
-  </si>
-  <si>
-    <t>Thread-426</t>
-  </si>
-  <si>
-    <t>Thread-437</t>
+    <t>434</t>
+  </si>
+  <si>
+    <t>435</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>437</t>
   </si>
   <si>
     <t xml:space="preserve"> CACGGGGCGT</t>
   </si>
   <si>
-    <t>Thread-416</t>
-  </si>
-  <si>
-    <t>Thread-440</t>
+    <t>416</t>
+  </si>
+  <si>
+    <t>440</t>
   </si>
   <si>
     <t xml:space="preserve"> AACGTAAAGA</t>
   </si>
   <si>
-    <t>Thread-420</t>
-  </si>
-  <si>
-    <t>Thread-427</t>
-  </si>
-  <si>
-    <t>Thread-442</t>
+    <t>420</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>442</t>
   </si>
   <si>
     <t xml:space="preserve"> CACGACGCGA</t>
   </si>
   <si>
-    <t>Thread-445</t>
+    <t>445</t>
   </si>
   <si>
     <t xml:space="preserve"> AACGAATGGA</t>
   </si>
   <si>
-    <t>Thread-446</t>
+    <t>446</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCACTGGA</t>
   </si>
   <si>
-    <t>Thread-447</t>
+    <t>447</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCGAAATGA</t>
   </si>
   <si>
-    <t>Thread-436</t>
+    <t>436</t>
   </si>
   <si>
     <t xml:space="preserve"> AACGTATGGA</t>
   </si>
   <si>
-    <t>Thread-449</t>
+    <t>449</t>
   </si>
   <si>
     <t xml:space="preserve"> CACGGGGCGA</t>
   </si>
   <si>
-    <t>Thread-450</t>
+    <t>450</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCGAAGGT</t>
   </si>
   <si>
-    <t>Thread-453</t>
+    <t>453</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCGACTGGT</t>
   </si>
   <si>
-    <t>Thread-456</t>
+    <t>456</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGTTTGGA</t>
   </si>
   <si>
-    <t>Thread-457</t>
+    <t>457</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGTAAATA</t>
   </si>
   <si>
-    <t>Thread-458</t>
-  </si>
-  <si>
-    <t>Thread-444</t>
-  </si>
-  <si>
-    <t>Thread-459</t>
-  </si>
-  <si>
-    <t>Thread-441</t>
-  </si>
-  <si>
-    <t>Thread-461</t>
+    <t>458</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>461</t>
   </si>
   <si>
     <t xml:space="preserve"> AACGGTTGGA</t>
   </si>
   <si>
-    <t>Thread-460</t>
-  </si>
-  <si>
-    <t>Thread-462</t>
-  </si>
-  <si>
-    <t>Thread-454</t>
+    <t>460</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>454</t>
   </si>
   <si>
     <t xml:space="preserve"> CCCGGCTGGT</t>
   </si>
   <si>
-    <t>Thread-443</t>
-  </si>
-  <si>
-    <t>Thread-439</t>
-  </si>
-  <si>
-    <t>Thread-428</t>
-  </si>
-  <si>
-    <t>Thread-465</t>
+    <t>443</t>
+  </si>
+  <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>465</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCGTTTAGA</t>
   </si>
   <si>
-    <t>Thread-452</t>
+    <t>452</t>
   </si>
   <si>
     <t xml:space="preserve"> CACCGAATGT</t>
   </si>
   <si>
-    <t>Thread-451</t>
+    <t>451</t>
   </si>
   <si>
     <t xml:space="preserve"> AACGTTTAGA</t>
   </si>
   <si>
-    <t>Thread-466</t>
+    <t>466</t>
   </si>
   <si>
     <t xml:space="preserve"> CACGTTGCGA</t>
   </si>
   <si>
-    <t>Thread-448</t>
-  </si>
-  <si>
-    <t>Thread-438</t>
-  </si>
-  <si>
-    <t>Thread-471</t>
+    <t>448</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>471</t>
   </si>
   <si>
     <t xml:space="preserve"> CACGGCTGGA</t>
   </si>
   <si>
-    <t>Thread-472</t>
+    <t>472</t>
   </si>
   <si>
     <t xml:space="preserve"> CACCGGGCGA</t>
   </si>
   <si>
-    <t>Thread-473</t>
+    <t>473</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCAGGCGA</t>
   </si>
   <si>
-    <t>Thread-467</t>
+    <t>467</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGGCTGGG</t>
   </si>
   <si>
-    <t>Thread-455</t>
+    <t>455</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCGGGCGA</t>
   </si>
   <si>
-    <t>Thread-476</t>
+    <t>476</t>
   </si>
   <si>
     <t xml:space="preserve"> AACCGGGCGA</t>
   </si>
   <si>
-    <t>Thread-478</t>
-  </si>
-  <si>
-    <t>Thread-479</t>
-  </si>
-  <si>
-    <t>Thread-480</t>
+    <t>478</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>480</t>
   </si>
   <si>
     <t xml:space="preserve"> AACGTAATGT</t>
   </si>
   <si>
-    <t>Thread-470</t>
-  </si>
-  <si>
-    <t>Thread-468</t>
-  </si>
-  <si>
-    <t>Thread-481</t>
-  </si>
-  <si>
-    <t>Thread-463</t>
-  </si>
-  <si>
-    <t>Thread-464</t>
+    <t>470</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>464</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCACTCGA</t>
   </si>
   <si>
-    <t>Thread-483</t>
-  </si>
-  <si>
-    <t>Thread-469</t>
+    <t>483</t>
+  </si>
+  <si>
+    <t>469</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCACTGGT</t>
   </si>
   <si>
-    <t>Thread-485</t>
-  </si>
-  <si>
-    <t>Thread-486</t>
-  </si>
-  <si>
-    <t>Thread-477</t>
+    <t>485</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>477</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCTTTGGA</t>
   </si>
   <si>
-    <t>Thread-474</t>
+    <t>474</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCGCTGGT</t>
   </si>
   <si>
-    <t>Thread-488</t>
+    <t>488</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCGCTGGA</t>
   </si>
   <si>
-    <t>Thread-489</t>
-  </si>
-  <si>
-    <t>Thread-490</t>
-  </si>
-  <si>
-    <t>Thread-482</t>
-  </si>
-  <si>
-    <t>Thread-487</t>
-  </si>
-  <si>
-    <t>Thread-496</t>
+    <t>489</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>496</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCACTGGG</t>
   </si>
   <si>
-    <t>Thread-498</t>
+    <t>498</t>
   </si>
   <si>
     <t xml:space="preserve"> AACCGCTCGA</t>
   </si>
   <si>
-    <t>Thread-493</t>
+    <t>493</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCACTCGT</t>
   </si>
   <si>
-    <t>Thread-494</t>
+    <t>494</t>
   </si>
   <si>
     <t xml:space="preserve"> AACGTTGCGA</t>
   </si>
   <si>
-    <t>Thread-499</t>
-  </si>
-  <si>
-    <t>Thread-495</t>
-  </si>
-  <si>
-    <t>Thread-502</t>
-  </si>
-  <si>
-    <t>Thread-503</t>
+    <t>499</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>503</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCTTTGGT</t>
   </si>
   <si>
-    <t>Thread-497</t>
-  </si>
-  <si>
-    <t>Thread-475</t>
-  </si>
-  <si>
-    <t>Thread-505</t>
-  </si>
-  <si>
-    <t>Thread-492</t>
-  </si>
-  <si>
-    <t>Thread-491</t>
+    <t>497</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>491</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCGGCTGGG</t>
   </si>
   <si>
-    <t>Thread-508</t>
+    <t>508</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCTTTGGG</t>
   </si>
   <si>
-    <t>Thread-509</t>
+    <t>509</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCGGCTGGT</t>
   </si>
   <si>
-    <t>Thread-510</t>
+    <t>510</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCGCTGGG</t>
   </si>
   <si>
-    <t>Thread-484</t>
-  </si>
-  <si>
-    <t>Thread-506</t>
-  </si>
-  <si>
-    <t>Thread-514</t>
-  </si>
-  <si>
-    <t>Thread-515</t>
-  </si>
-  <si>
-    <t>Thread-516</t>
-  </si>
-  <si>
-    <t>Thread-500</t>
-  </si>
-  <si>
-    <t>Thread-518</t>
-  </si>
-  <si>
-    <t>Thread-520</t>
-  </si>
-  <si>
-    <t>Thread-511</t>
-  </si>
-  <si>
-    <t>Thread-523</t>
-  </si>
-  <si>
-    <t>Thread-513</t>
-  </si>
-  <si>
-    <t>Thread-524</t>
+    <t>484</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>524</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCTCTGGG</t>
   </si>
   <si>
-    <t>Thread-512</t>
-  </si>
-  <si>
-    <t>Thread-525</t>
-  </si>
-  <si>
-    <t>Thread-501</t>
-  </si>
-  <si>
-    <t>Thread-517</t>
-  </si>
-  <si>
-    <t>Thread-529</t>
-  </si>
-  <si>
-    <t>Thread-521</t>
-  </si>
-  <si>
-    <t>Thread-530</t>
-  </si>
-  <si>
-    <t>Thread-522</t>
-  </si>
-  <si>
-    <t>Thread-531</t>
-  </si>
-  <si>
-    <t>Thread-526</t>
-  </si>
-  <si>
-    <t>Thread-533</t>
-  </si>
-  <si>
-    <t>Thread-534</t>
-  </si>
-  <si>
-    <t>Thread-536</t>
-  </si>
-  <si>
-    <t>Thread-519</t>
-  </si>
-  <si>
-    <t>Thread-537</t>
-  </si>
-  <si>
-    <t>Thread-528</t>
-  </si>
-  <si>
-    <t>Thread-538</t>
-  </si>
-  <si>
-    <t>Thread-539</t>
-  </si>
-  <si>
-    <t>Thread-507</t>
-  </si>
-  <si>
-    <t>Thread-540</t>
-  </si>
-  <si>
-    <t>Thread-541</t>
-  </si>
-  <si>
-    <t>Thread-542</t>
-  </si>
-  <si>
-    <t>Thread-504</t>
-  </si>
-  <si>
-    <t>Thread-544</t>
-  </si>
-  <si>
-    <t>Thread-548</t>
-  </si>
-  <si>
-    <t>Thread-527</t>
-  </si>
-  <si>
-    <t>Thread-549</t>
-  </si>
-  <si>
-    <t>Thread-545</t>
-  </si>
-  <si>
-    <t>Thread-550</t>
-  </si>
-  <si>
-    <t>Thread-551</t>
-  </si>
-  <si>
-    <t>Thread-535</t>
-  </si>
-  <si>
-    <t>Thread-546</t>
-  </si>
-  <si>
-    <t>Thread-547</t>
-  </si>
-  <si>
-    <t>Thread-554</t>
-  </si>
-  <si>
-    <t>Thread-555</t>
-  </si>
-  <si>
-    <t>Thread-557</t>
-  </si>
-  <si>
-    <t>Thread-558</t>
-  </si>
-  <si>
-    <t>Thread-559</t>
-  </si>
-  <si>
-    <t>Thread-560</t>
-  </si>
-  <si>
-    <t>Thread-532</t>
-  </si>
-  <si>
-    <t>Thread-556</t>
-  </si>
-  <si>
-    <t>Thread-564</t>
-  </si>
-  <si>
-    <t>Thread-553</t>
-  </si>
-  <si>
-    <t>Thread-561</t>
-  </si>
-  <si>
-    <t>Thread-566</t>
-  </si>
-  <si>
-    <t>Thread-552</t>
-  </si>
-  <si>
-    <t>Thread-568</t>
-  </si>
-  <si>
-    <t>Thread-569</t>
-  </si>
-  <si>
-    <t>Thread-570</t>
-  </si>
-  <si>
-    <t>Thread-571</t>
-  </si>
-  <si>
-    <t>Thread-562</t>
-  </si>
-  <si>
-    <t>Thread-543</t>
-  </si>
-  <si>
-    <t>Thread-573</t>
-  </si>
-  <si>
-    <t>Thread-565</t>
-  </si>
-  <si>
-    <t>Thread-574</t>
-  </si>
-  <si>
-    <t>Thread-567</t>
-  </si>
-  <si>
-    <t>Thread-577</t>
-  </si>
-  <si>
-    <t>Thread-576</t>
-  </si>
-  <si>
-    <t>Thread-579</t>
-  </si>
-  <si>
-    <t>Thread-575</t>
-  </si>
-  <si>
-    <t>Thread-580</t>
-  </si>
-  <si>
-    <t>Thread-582</t>
-  </si>
-  <si>
-    <t>Thread-572</t>
-  </si>
-  <si>
-    <t>Thread-581</t>
-  </si>
-  <si>
-    <t>Thread-578</t>
-  </si>
-  <si>
-    <t>Thread-563</t>
-  </si>
-  <si>
-    <t>Thread-588</t>
-  </si>
-  <si>
-    <t>Thread-583</t>
-  </si>
-  <si>
-    <t>Thread-590</t>
-  </si>
-  <si>
-    <t>Thread-593</t>
-  </si>
-  <si>
-    <t>Thread-594</t>
-  </si>
-  <si>
-    <t>Thread-587</t>
-  </si>
-  <si>
-    <t>Thread-595</t>
-  </si>
-  <si>
-    <t>Thread-584</t>
-  </si>
-  <si>
-    <t>Thread-596</t>
-  </si>
-  <si>
-    <t>Thread-586</t>
-  </si>
-  <si>
-    <t>Thread-598</t>
-  </si>
-  <si>
-    <t>Thread-589</t>
-  </si>
-  <si>
-    <t>Thread-601</t>
-  </si>
-  <si>
-    <t>Thread-603</t>
-  </si>
-  <si>
-    <t>Thread-585</t>
-  </si>
-  <si>
-    <t>Thread-606</t>
-  </si>
-  <si>
-    <t>Thread-607</t>
-  </si>
-  <si>
-    <t>Thread-600</t>
-  </si>
-  <si>
-    <t>Thread-602</t>
-  </si>
-  <si>
-    <t>Thread-612</t>
-  </si>
-  <si>
-    <t>Thread-613</t>
-  </si>
-  <si>
-    <t>Thread-615</t>
-  </si>
-  <si>
-    <t>Thread-616</t>
-  </si>
-  <si>
-    <t>Thread-617</t>
-  </si>
-  <si>
-    <t>Thread-608</t>
-  </si>
-  <si>
-    <t>Thread-591</t>
-  </si>
-  <si>
-    <t>Thread-609</t>
-  </si>
-  <si>
-    <t>Thread-604</t>
-  </si>
-  <si>
-    <t>Thread-619</t>
-  </si>
-  <si>
-    <t>Thread-610</t>
-  </si>
-  <si>
-    <t>Thread-620</t>
-  </si>
-  <si>
-    <t>Thread-592</t>
-  </si>
-  <si>
-    <t>Thread-611</t>
-  </si>
-  <si>
-    <t>Thread-622</t>
-  </si>
-  <si>
-    <t>Thread-624</t>
-  </si>
-  <si>
-    <t>Thread-625</t>
-  </si>
-  <si>
-    <t>Thread-626</t>
-  </si>
-  <si>
-    <t>Thread-605</t>
-  </si>
-  <si>
-    <t>Thread-628</t>
-  </si>
-  <si>
-    <t>Thread-629</t>
-  </si>
-  <si>
-    <t>Thread-630</t>
-  </si>
-  <si>
-    <t>Thread-597</t>
-  </si>
-  <si>
-    <t>Thread-614</t>
-  </si>
-  <si>
-    <t>Thread-632</t>
-  </si>
-  <si>
-    <t>Thread-634</t>
-  </si>
-  <si>
-    <t>Thread-637</t>
-  </si>
-  <si>
-    <t>Thread-638</t>
-  </si>
-  <si>
-    <t>Thread-639</t>
-  </si>
-  <si>
-    <t>Thread-640</t>
-  </si>
-  <si>
-    <t>Thread-627</t>
-  </si>
-  <si>
-    <t>Thread-621</t>
-  </si>
-  <si>
-    <t>Thread-618</t>
-  </si>
-  <si>
-    <t>Thread-623</t>
-  </si>
-  <si>
-    <t>Thread-641</t>
-  </si>
-  <si>
-    <t>Thread-631</t>
-  </si>
-  <si>
-    <t>Thread-644</t>
-  </si>
-  <si>
-    <t>Thread-636</t>
-  </si>
-  <si>
-    <t>Thread-633</t>
-  </si>
-  <si>
-    <t>Thread-649</t>
-  </si>
-  <si>
-    <t>Thread-635</t>
-  </si>
-  <si>
-    <t>Thread-652</t>
-  </si>
-  <si>
-    <t>Thread-645</t>
-  </si>
-  <si>
-    <t>Thread-642</t>
-  </si>
-  <si>
-    <t>Thread-654</t>
-  </si>
-  <si>
-    <t>Thread-646</t>
-  </si>
-  <si>
-    <t>Thread-655</t>
-  </si>
-  <si>
-    <t>Thread-647</t>
-  </si>
-  <si>
-    <t>Thread-648</t>
-  </si>
-  <si>
-    <t>Thread-657</t>
-  </si>
-  <si>
-    <t>Thread-650</t>
-  </si>
-  <si>
-    <t>Thread-651</t>
-  </si>
-  <si>
-    <t>Thread-643</t>
-  </si>
-  <si>
-    <t>Thread-659</t>
-  </si>
-  <si>
-    <t>Thread-653</t>
-  </si>
-  <si>
-    <t>Thread-599</t>
-  </si>
-  <si>
-    <t>Thread-664</t>
-  </si>
-  <si>
-    <t>Thread-658</t>
-  </si>
-  <si>
-    <t>Thread-661</t>
-  </si>
-  <si>
-    <t>Thread-668</t>
-  </si>
-  <si>
-    <t>Thread-669</t>
-  </si>
-  <si>
-    <t>Thread-670</t>
-  </si>
-  <si>
-    <t>Thread-671</t>
-  </si>
-  <si>
-    <t>Thread-663</t>
-  </si>
-  <si>
-    <t>Thread-667</t>
-  </si>
-  <si>
-    <t>Thread-673</t>
-  </si>
-  <si>
-    <t>Thread-674</t>
-  </si>
-  <si>
-    <t>Thread-662</t>
-  </si>
-  <si>
-    <t>Thread-665</t>
-  </si>
-  <si>
-    <t>Thread-660</t>
-  </si>
-  <si>
-    <t>Thread-672</t>
-  </si>
-  <si>
-    <t>Thread-676</t>
-  </si>
-  <si>
-    <t>Thread-675</t>
-  </si>
-  <si>
-    <t>Thread-677</t>
-  </si>
-  <si>
-    <t>Thread-682</t>
-  </si>
-  <si>
-    <t>Thread-683</t>
-  </si>
-  <si>
-    <t>Thread-678</t>
-  </si>
-  <si>
-    <t>Thread-686</t>
-  </si>
-  <si>
-    <t>Thread-666</t>
-  </si>
-  <si>
-    <t>Thread-680</t>
-  </si>
-  <si>
-    <t>Thread-681</t>
-  </si>
-  <si>
-    <t>Thread-656</t>
-  </si>
-  <si>
-    <t>Thread-687</t>
-  </si>
-  <si>
-    <t>Thread-688</t>
-  </si>
-  <si>
-    <t>Thread-679</t>
-  </si>
-  <si>
-    <t>Thread-691</t>
-  </si>
-  <si>
-    <t>Thread-684</t>
-  </si>
-  <si>
-    <t>Thread-694</t>
-  </si>
-  <si>
-    <t>Thread-698</t>
-  </si>
-  <si>
-    <t>Thread-685</t>
-  </si>
-  <si>
-    <t>Thread-693</t>
-  </si>
-  <si>
-    <t>Thread-699</t>
-  </si>
-  <si>
-    <t>Thread-692</t>
-  </si>
-  <si>
-    <t>Thread-695</t>
-  </si>
-  <si>
-    <t>Thread-689</t>
-  </si>
-  <si>
-    <t>Thread-701</t>
-  </si>
-  <si>
-    <t>Thread-705</t>
-  </si>
-  <si>
-    <t>Thread-700</t>
-  </si>
-  <si>
-    <t>Thread-708</t>
-  </si>
-  <si>
-    <t>Thread-702</t>
-  </si>
-  <si>
-    <t>Thread-711</t>
-  </si>
-  <si>
-    <t>Thread-714</t>
-  </si>
-  <si>
-    <t>Thread-716</t>
-  </si>
-  <si>
-    <t>Thread-706</t>
-  </si>
-  <si>
-    <t>Thread-707</t>
-  </si>
-  <si>
-    <t>Thread-709</t>
-  </si>
-  <si>
-    <t>Thread-710</t>
-  </si>
-  <si>
-    <t>Thread-703</t>
-  </si>
-  <si>
-    <t>Thread-697</t>
-  </si>
-  <si>
-    <t>Thread-719</t>
-  </si>
-  <si>
-    <t>Thread-720</t>
-  </si>
-  <si>
-    <t>Thread-721</t>
-  </si>
-  <si>
-    <t>Thread-690</t>
-  </si>
-  <si>
-    <t>Thread-712</t>
-  </si>
-  <si>
-    <t>Thread-724</t>
-  </si>
-  <si>
-    <t>Thread-725</t>
-  </si>
-  <si>
-    <t>Thread-726</t>
-  </si>
-  <si>
-    <t>Thread-696</t>
-  </si>
-  <si>
-    <t>Thread-717</t>
-  </si>
-  <si>
-    <t>Thread-727</t>
-  </si>
-  <si>
-    <t>Thread-729</t>
-  </si>
-  <si>
-    <t>Thread-730</t>
-  </si>
-  <si>
-    <t>Thread-731</t>
-  </si>
-  <si>
-    <t>Thread-704</t>
-  </si>
-  <si>
-    <t>Thread-713</t>
-  </si>
-  <si>
-    <t>Thread-733</t>
-  </si>
-  <si>
-    <t>Thread-734</t>
-  </si>
-  <si>
-    <t>Thread-718</t>
-  </si>
-  <si>
-    <t>Thread-737</t>
-  </si>
-  <si>
-    <t>Thread-738</t>
-  </si>
-  <si>
-    <t>Thread-732</t>
-  </si>
-  <si>
-    <t>Thread-728</t>
-  </si>
-  <si>
-    <t>Thread-735</t>
-  </si>
-  <si>
-    <t>Thread-744</t>
-  </si>
-  <si>
-    <t>Thread-722</t>
-  </si>
-  <si>
-    <t>Thread-747</t>
-  </si>
-  <si>
-    <t>Thread-739</t>
-  </si>
-  <si>
-    <t>Thread-741</t>
-  </si>
-  <si>
-    <t>Thread-751</t>
-  </si>
-  <si>
-    <t>Thread-723</t>
-  </si>
-  <si>
-    <t>Thread-752</t>
-  </si>
-  <si>
-    <t>Thread-746</t>
-  </si>
-  <si>
-    <t>Thread-715</t>
-  </si>
-  <si>
-    <t>Thread-745</t>
-  </si>
-  <si>
-    <t>Thread-756</t>
-  </si>
-  <si>
-    <t>Thread-749</t>
-  </si>
-  <si>
-    <t>Thread-736</t>
-  </si>
-  <si>
-    <t>Thread-760</t>
-  </si>
-  <si>
-    <t>Thread-740</t>
-  </si>
-  <si>
-    <t>Thread-761</t>
-  </si>
-  <si>
-    <t>Thread-748</t>
-  </si>
-  <si>
-    <t>Thread-743</t>
-  </si>
-  <si>
-    <t>Thread-762</t>
-  </si>
-  <si>
-    <t>Thread-764</t>
-  </si>
-  <si>
-    <t>Thread-767</t>
-  </si>
-  <si>
-    <t>Thread-766</t>
-  </si>
-  <si>
-    <t>Thread-754</t>
-  </si>
-  <si>
-    <t>Thread-768</t>
-  </si>
-  <si>
-    <t>Thread-757</t>
-  </si>
-  <si>
-    <t>Thread-769</t>
-  </si>
-  <si>
-    <t>Thread-770</t>
-  </si>
-  <si>
-    <t>Thread-771</t>
-  </si>
-  <si>
-    <t>Thread-772</t>
-  </si>
-  <si>
-    <t>Thread-750</t>
-  </si>
-  <si>
-    <t>Thread-773</t>
-  </si>
-  <si>
-    <t>Thread-755</t>
-  </si>
-  <si>
-    <t>Thread-753</t>
-  </si>
-  <si>
-    <t>Thread-776</t>
-  </si>
-  <si>
-    <t>Thread-742</t>
-  </si>
-  <si>
-    <t>Thread-779</t>
-  </si>
-  <si>
-    <t>Thread-781</t>
-  </si>
-  <si>
-    <t>Thread-763</t>
-  </si>
-  <si>
-    <t>Thread-784</t>
-  </si>
-  <si>
-    <t>Thread-785</t>
-  </si>
-  <si>
-    <t>Thread-775</t>
-  </si>
-  <si>
-    <t>Thread-786</t>
-  </si>
-  <si>
-    <t>Thread-774</t>
-  </si>
-  <si>
-    <t>Thread-787</t>
-  </si>
-  <si>
-    <t>Thread-758</t>
-  </si>
-  <si>
-    <t>Thread-791</t>
-  </si>
-  <si>
-    <t>Thread-792</t>
-  </si>
-  <si>
-    <t>Thread-793</t>
-  </si>
-  <si>
-    <t>Thread-777</t>
-  </si>
-  <si>
-    <t>Thread-780</t>
-  </si>
-  <si>
-    <t>Thread-782</t>
-  </si>
-  <si>
-    <t>Thread-783</t>
-  </si>
-  <si>
-    <t>Thread-796</t>
-  </si>
-  <si>
-    <t>Thread-798</t>
-  </si>
-  <si>
-    <t>Thread-799</t>
-  </si>
-  <si>
-    <t>Thread-800</t>
-  </si>
-  <si>
-    <t>Thread-759</t>
-  </si>
-  <si>
-    <t>Thread-802</t>
-  </si>
-  <si>
-    <t>Thread-790</t>
-  </si>
-  <si>
-    <t>Thread-803</t>
-  </si>
-  <si>
-    <t>Thread-804</t>
-  </si>
-  <si>
-    <t>Thread-805</t>
-  </si>
-  <si>
-    <t>Thread-806</t>
-  </si>
-  <si>
-    <t>Thread-765</t>
-  </si>
-  <si>
-    <t>Thread-797</t>
-  </si>
-  <si>
-    <t>Thread-808</t>
-  </si>
-  <si>
-    <t>Thread-809</t>
-  </si>
-  <si>
-    <t>Thread-794</t>
-  </si>
-  <si>
-    <t>Thread-801</t>
-  </si>
-  <si>
-    <t>Thread-811</t>
-  </si>
-  <si>
-    <t>Thread-812</t>
-  </si>
-  <si>
-    <t>Thread-813</t>
-  </si>
-  <si>
-    <t>Thread-815</t>
-  </si>
-  <si>
-    <t>Thread-810</t>
-  </si>
-  <si>
-    <t>Thread-818</t>
-  </si>
-  <si>
-    <t>Thread-789</t>
-  </si>
-  <si>
-    <t>Thread-807</t>
-  </si>
-  <si>
-    <t>Thread-814</t>
-  </si>
-  <si>
-    <t>Thread-819</t>
-  </si>
-  <si>
-    <t>Thread-825</t>
-  </si>
-  <si>
-    <t>Thread-826</t>
-  </si>
-  <si>
-    <t>Thread-816</t>
-  </si>
-  <si>
-    <t>Thread-827</t>
-  </si>
-  <si>
-    <t>Thread-788</t>
-  </si>
-  <si>
-    <t>Thread-820</t>
-  </si>
-  <si>
-    <t>Thread-828</t>
-  </si>
-  <si>
-    <t>Thread-822</t>
-  </si>
-  <si>
-    <t>Thread-817</t>
-  </si>
-  <si>
-    <t>Thread-795</t>
-  </si>
-  <si>
-    <t>Thread-824</t>
-  </si>
-  <si>
-    <t>Thread-830</t>
-  </si>
-  <si>
-    <t>Thread-833</t>
-  </si>
-  <si>
-    <t>Thread-778</t>
-  </si>
-  <si>
-    <t>Thread-821</t>
-  </si>
-  <si>
-    <t>Thread-837</t>
-  </si>
-  <si>
-    <t>Thread-839</t>
-  </si>
-  <si>
-    <t>Thread-840</t>
-  </si>
-  <si>
-    <t>Thread-841</t>
-  </si>
-  <si>
-    <t>Thread-823</t>
-  </si>
-  <si>
-    <t>Thread-842</t>
-  </si>
-  <si>
-    <t>Thread-844</t>
-  </si>
-  <si>
-    <t>Thread-846</t>
-  </si>
-  <si>
-    <t>Thread-848</t>
-  </si>
-  <si>
-    <t>Thread-835</t>
-  </si>
-  <si>
-    <t>Thread-836</t>
-  </si>
-  <si>
-    <t>Thread-851</t>
-  </si>
-  <si>
-    <t>Thread-852</t>
-  </si>
-  <si>
-    <t>Thread-832</t>
-  </si>
-  <si>
-    <t>Thread-853</t>
-  </si>
-  <si>
-    <t>Thread-854</t>
-  </si>
-  <si>
-    <t>Thread-829</t>
-  </si>
-  <si>
-    <t>Thread-834</t>
-  </si>
-  <si>
-    <t>Thread-831</t>
-  </si>
-  <si>
-    <t>Thread-843</t>
-  </si>
-  <si>
-    <t>Thread-858</t>
-  </si>
-  <si>
-    <t>Thread-845</t>
-  </si>
-  <si>
-    <t>Thread-859</t>
-  </si>
-  <si>
-    <t>Thread-861</t>
-  </si>
-  <si>
-    <t>Thread-857</t>
-  </si>
-  <si>
-    <t>Thread-864</t>
-  </si>
-  <si>
-    <t>Thread-855</t>
-  </si>
-  <si>
-    <t>Thread-866</t>
-  </si>
-  <si>
-    <t>Thread-847</t>
-  </si>
-  <si>
-    <t>Thread-860</t>
-  </si>
-  <si>
-    <t>Thread-856</t>
-  </si>
-  <si>
-    <t>Thread-850</t>
-  </si>
-  <si>
-    <t>Thread-849</t>
-  </si>
-  <si>
-    <t>Thread-863</t>
-  </si>
-  <si>
-    <t>Thread-867</t>
-  </si>
-  <si>
-    <t>Thread-838</t>
-  </si>
-  <si>
-    <t>Thread-870</t>
-  </si>
-  <si>
-    <t>Thread-865</t>
-  </si>
-  <si>
-    <t>Thread-869</t>
-  </si>
-  <si>
-    <t>Thread-871</t>
-  </si>
-  <si>
-    <t>Thread-862</t>
-  </si>
-  <si>
-    <t>Thread-868</t>
-  </si>
-  <si>
-    <t>Thread-873</t>
-  </si>
-  <si>
-    <t>Thread-874</t>
-  </si>
-  <si>
-    <t>Thread-877</t>
-  </si>
-  <si>
-    <t>Thread-872</t>
-  </si>
-  <si>
-    <t>Thread-878</t>
-  </si>
-  <si>
-    <t>Thread-879</t>
-  </si>
-  <si>
-    <t>Thread-876</t>
-  </si>
-  <si>
-    <t>Thread-880</t>
-  </si>
-  <si>
-    <t>Thread-881</t>
-  </si>
-  <si>
-    <t>Thread-875</t>
-  </si>
-  <si>
-    <t>Thread-882</t>
-  </si>
-  <si>
-    <t>Thread-884</t>
-  </si>
-  <si>
-    <t>Thread-883</t>
+    <t>512</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>577</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>594</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>596</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>603</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>613</t>
+  </si>
+  <si>
+    <t>615</t>
+  </si>
+  <si>
+    <t>616</t>
+  </si>
+  <si>
+    <t>617</t>
+  </si>
+  <si>
+    <t>608</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>609</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>619</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>611</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>624</t>
+  </si>
+  <si>
+    <t>625</t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>628</t>
+  </si>
+  <si>
+    <t>629</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>597</t>
+  </si>
+  <si>
+    <t>614</t>
+  </si>
+  <si>
+    <t>632</t>
+  </si>
+  <si>
+    <t>634</t>
+  </si>
+  <si>
+    <t>637</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>639</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>627</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>618</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>641</t>
+  </si>
+  <si>
+    <t>631</t>
+  </si>
+  <si>
+    <t>644</t>
+  </si>
+  <si>
+    <t>636</t>
+  </si>
+  <si>
+    <t>633</t>
+  </si>
+  <si>
+    <t>649</t>
+  </si>
+  <si>
+    <t>635</t>
+  </si>
+  <si>
+    <t>652</t>
+  </si>
+  <si>
+    <t>645</t>
+  </si>
+  <si>
+    <t>642</t>
+  </si>
+  <si>
+    <t>654</t>
+  </si>
+  <si>
+    <t>646</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>647</t>
+  </si>
+  <si>
+    <t>648</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>651</t>
+  </si>
+  <si>
+    <t>643</t>
+  </si>
+  <si>
+    <t>659</t>
+  </si>
+  <si>
+    <t>653</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>664</t>
+  </si>
+  <si>
+    <t>658</t>
+  </si>
+  <si>
+    <t>661</t>
+  </si>
+  <si>
+    <t>668</t>
+  </si>
+  <si>
+    <t>669</t>
+  </si>
+  <si>
+    <t>670</t>
+  </si>
+  <si>
+    <t>671</t>
+  </si>
+  <si>
+    <t>663</t>
+  </si>
+  <si>
+    <t>667</t>
+  </si>
+  <si>
+    <t>673</t>
+  </si>
+  <si>
+    <t>674</t>
+  </si>
+  <si>
+    <t>662</t>
+  </si>
+  <si>
+    <t>665</t>
+  </si>
+  <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>672</t>
+  </si>
+  <si>
+    <t>676</t>
+  </si>
+  <si>
+    <t>675</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>682</t>
+  </si>
+  <si>
+    <t>683</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>686</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>681</t>
+  </si>
+  <si>
+    <t>656</t>
+  </si>
+  <si>
+    <t>687</t>
+  </si>
+  <si>
+    <t>688</t>
+  </si>
+  <si>
+    <t>679</t>
+  </si>
+  <si>
+    <t>691</t>
+  </si>
+  <si>
+    <t>684</t>
+  </si>
+  <si>
+    <t>694</t>
+  </si>
+  <si>
+    <t>698</t>
+  </si>
+  <si>
+    <t>685</t>
+  </si>
+  <si>
+    <t>693</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>692</t>
+  </si>
+  <si>
+    <t>695</t>
+  </si>
+  <si>
+    <t>689</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>714</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>707</t>
+  </si>
+  <si>
+    <t>709</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>697</t>
+  </si>
+  <si>
+    <t>719</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>721</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>712</t>
+  </si>
+  <si>
+    <t>724</t>
+  </si>
+  <si>
+    <t>725</t>
+  </si>
+  <si>
+    <t>726</t>
+  </si>
+  <si>
+    <t>696</t>
+  </si>
+  <si>
+    <t>717</t>
+  </si>
+  <si>
+    <t>727</t>
+  </si>
+  <si>
+    <t>729</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>731</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>713</t>
+  </si>
+  <si>
+    <t>733</t>
+  </si>
+  <si>
+    <t>734</t>
+  </si>
+  <si>
+    <t>718</t>
+  </si>
+  <si>
+    <t>737</t>
+  </si>
+  <si>
+    <t>738</t>
+  </si>
+  <si>
+    <t>732</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>735</t>
+  </si>
+  <si>
+    <t>744</t>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
+    <t>747</t>
+  </si>
+  <si>
+    <t>739</t>
+  </si>
+  <si>
+    <t>741</t>
+  </si>
+  <si>
+    <t>751</t>
+  </si>
+  <si>
+    <t>723</t>
+  </si>
+  <si>
+    <t>752</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>715</t>
+  </si>
+  <si>
+    <t>745</t>
+  </si>
+  <si>
+    <t>756</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>761</t>
+  </si>
+  <si>
+    <t>748</t>
+  </si>
+  <si>
+    <t>743</t>
+  </si>
+  <si>
+    <t>762</t>
+  </si>
+  <si>
+    <t>764</t>
+  </si>
+  <si>
+    <t>767</t>
+  </si>
+  <si>
+    <t>766</t>
+  </si>
+  <si>
+    <t>754</t>
+  </si>
+  <si>
+    <t>768</t>
+  </si>
+  <si>
+    <t>757</t>
+  </si>
+  <si>
+    <t>769</t>
+  </si>
+  <si>
+    <t>770</t>
+  </si>
+  <si>
+    <t>771</t>
+  </si>
+  <si>
+    <t>772</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>773</t>
+  </si>
+  <si>
+    <t>755</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
+    <t>776</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>779</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>763</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>785</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>774</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>758</t>
+  </si>
+  <si>
+    <t>791</t>
+  </si>
+  <si>
+    <t>792</t>
+  </si>
+  <si>
+    <t>793</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>782</t>
+  </si>
+  <si>
+    <t>783</t>
+  </si>
+  <si>
+    <t>796</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>799</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>790</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>765</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>794</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>818</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>825</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>816</t>
+  </si>
+  <si>
+    <t>827</t>
+  </si>
+  <si>
+    <t>788</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>828</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>795</t>
+  </si>
+  <si>
+    <t>824</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>833</t>
+  </si>
+  <si>
+    <t>778</t>
+  </si>
+  <si>
+    <t>821</t>
+  </si>
+  <si>
+    <t>837</t>
+  </si>
+  <si>
+    <t>839</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>841</t>
+  </si>
+  <si>
+    <t>823</t>
+  </si>
+  <si>
+    <t>842</t>
+  </si>
+  <si>
+    <t>844</t>
+  </si>
+  <si>
+    <t>846</t>
+  </si>
+  <si>
+    <t>848</t>
+  </si>
+  <si>
+    <t>835</t>
+  </si>
+  <si>
+    <t>836</t>
+  </si>
+  <si>
+    <t>851</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>832</t>
+  </si>
+  <si>
+    <t>853</t>
+  </si>
+  <si>
+    <t>854</t>
+  </si>
+  <si>
+    <t>829</t>
+  </si>
+  <si>
+    <t>834</t>
+  </si>
+  <si>
+    <t>831</t>
+  </si>
+  <si>
+    <t>843</t>
+  </si>
+  <si>
+    <t>858</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>859</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>857</t>
+  </si>
+  <si>
+    <t>864</t>
+  </si>
+  <si>
+    <t>855</t>
+  </si>
+  <si>
+    <t>866</t>
+  </si>
+  <si>
+    <t>847</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>856</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>849</t>
+  </si>
+  <si>
+    <t>863</t>
+  </si>
+  <si>
+    <t>867</t>
+  </si>
+  <si>
+    <t>838</t>
+  </si>
+  <si>
+    <t>870</t>
+  </si>
+  <si>
+    <t>865</t>
+  </si>
+  <si>
+    <t>869</t>
+  </si>
+  <si>
+    <t>871</t>
+  </si>
+  <si>
+    <t>862</t>
+  </si>
+  <si>
+    <t>868</t>
+  </si>
+  <si>
+    <t>873</t>
+  </si>
+  <si>
+    <t>874</t>
+  </si>
+  <si>
+    <t>877</t>
+  </si>
+  <si>
+    <t>872</t>
+  </si>
+  <si>
+    <t>878</t>
+  </si>
+  <si>
+    <t>879</t>
+  </si>
+  <si>
+    <t>876</t>
+  </si>
+  <si>
+    <t>880</t>
+  </si>
+  <si>
+    <t>881</t>
+  </si>
+  <si>
+    <t>875</t>
+  </si>
+  <si>
+    <t>882</t>
+  </si>
+  <si>
+    <t>884</t>
+  </si>
+  <si>
+    <t>883</t>
   </si>
 </sst>
 </file>
